--- a/frontEnd/public/files/staff/staff_template.xlsx
+++ b/frontEnd/public/files/staff/staff_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHD\Desktop\phong9\Sprint4\frontEnd\public\files\staff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Staffs" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">Code </t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>Welfare_money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status </t>
   </si>
   <si>
     <t>Department_name</t>
@@ -398,24 +392,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,66 +423,45 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>38909</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="E2">
-        <v>19000000</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>37236</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>20000000</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Phòng nhân sự,Phòng kế toán"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
-      <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
